--- a/database design.xlsx
+++ b/database design.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenthainhatsang/Desktop/JAVA16/3. DATABASE/java16-repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\BKIT_JAVA16\3.DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{617F1F22-D282-F544-86A9-7F6BDBB87A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{2A42D7B3-5333-764A-8B93-12492D362365}"/>
+    <workbookView xWindow="384" yWindow="504" windowWidth="28044" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niện" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Mô hình Logic" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>tên mặt hàng</t>
   </si>
@@ -166,13 +166,172 @@
   </si>
   <si>
     <t>Thời gian</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>LoaiHang</t>
+  </si>
+  <si>
+    <t>MatHang</t>
+  </si>
+  <si>
+    <t>NhaSanXuat</t>
+  </si>
+  <si>
+    <t>DonHang</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>HoaDon</t>
+  </si>
+  <si>
+    <t>TinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>MaNV</t>
+  </si>
+  <si>
+    <t>TenNV</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>ThoiGianBatDau</t>
+  </si>
+  <si>
+    <t>HinhThucLamViec</t>
+  </si>
+  <si>
+    <t>MaLH</t>
+  </si>
+  <si>
+    <t>TenLH</t>
+  </si>
+  <si>
+    <t>MoTa</t>
+  </si>
+  <si>
+    <t>MaMH</t>
+  </si>
+  <si>
+    <t>TenMH</t>
+  </si>
+  <si>
+    <t>KichCo</t>
+  </si>
+  <si>
+    <t>MauSac</t>
+  </si>
+  <si>
+    <t>SoLuongConLai</t>
+  </si>
+  <si>
+    <t>GiaMua</t>
+  </si>
+  <si>
+    <t>GiaBan</t>
+  </si>
+  <si>
+    <t>ChatLieu</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>MaNSX</t>
+  </si>
+  <si>
+    <t>TenNSX</t>
+  </si>
+  <si>
+    <t>MaDH</t>
+  </si>
+  <si>
+    <t>DanhSachMatHang</t>
+  </si>
+  <si>
+    <t>NgayTaoDonHang</t>
+  </si>
+  <si>
+    <t>LoaiHinhThanhToan</t>
+  </si>
+  <si>
+    <t>TongTien</t>
+  </si>
+  <si>
+    <t>PhiVanChuyen</t>
+  </si>
+  <si>
+    <t>DiaChiNhanHang</t>
+  </si>
+  <si>
+    <t>MaKH</t>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>TaiKhoan</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>MaHD</t>
+  </si>
+  <si>
+    <t>NgayTaoHD</t>
+  </si>
+  <si>
+    <t>SoTienConLai</t>
+  </si>
+  <si>
+    <t>MaTTDH</t>
+  </si>
+  <si>
+    <t>ChiTietTinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>NhanVienPhuTrach</t>
+  </si>
+  <si>
+    <t>ThoiGian</t>
+  </si>
+  <si>
+    <t>CungCap</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>ThoiGianCungCap</t>
+  </si>
+  <si>
+    <t>1. Mô hình Logic</t>
+  </si>
+  <si>
+    <t>A. Xác định lại các tập thực thể</t>
+  </si>
+  <si>
+    <t>B. Xác định mối quan hệ giữa các tập thực thể</t>
+  </si>
+  <si>
+    <t>C. Xác định khóa của tập thực thể</t>
+  </si>
+  <si>
+    <t>D. Xác định KDL của thuộc tính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,8 +354,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +373,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,28 +755,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94418494-17B3-6C44-9ADC-33CBC3B4E310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="22" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="8" max="8" width="26.296875" customWidth="1"/>
+    <col min="9" max="22" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -611,7 +802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -637,7 +828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -663,7 +854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -687,7 +878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -711,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -731,7 +922,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -749,7 +940,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -764,7 +955,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -780,7 +971,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -794,7 +985,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -804,56 +995,56 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E4C82-3D84-7F4D-8A99-8806A732F80A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="22" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="8" max="8" width="26.296875" customWidth="1"/>
+    <col min="9" max="22" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -879,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -905,7 +1096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -931,7 +1122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -955,7 +1146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -979,7 +1170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1190,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -1017,7 +1208,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1032,7 +1223,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -1048,7 +1239,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -1062,7 +1253,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1072,33 +1263,370 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" ht="95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:2" ht="95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="26" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" ht="94.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:2" ht="94.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="25.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="9" max="9" width="23.69921875" customWidth="1"/>
+    <col min="10" max="10" width="24.296875" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>